--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1401.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1401.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.523397544930789</v>
+        <v>1.186135172843933</v>
       </c>
       <c r="B1">
-        <v>2.4038884393448</v>
+        <v>1.999900579452515</v>
       </c>
       <c r="C1">
-        <v>2.858813658430714</v>
+        <v>6.24809455871582</v>
       </c>
       <c r="D1">
-        <v>3.201662245474389</v>
+        <v>2.30059814453125</v>
       </c>
       <c r="E1">
-        <v>1.849611207136396</v>
+        <v>1.196532487869263</v>
       </c>
     </row>
   </sheetData>
